--- a/cms-ars-3.1-moderate-oracle-java-runtime-environment-7-stig-overlay.xlsx
+++ b/cms-ars-3.1-moderate-oracle-java-runtime-environment-7-stig-overlay.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dhaynes/Documents/inspec/cms/cms-ars-3.1-moderate-oracle-java-runtime-environment-7-stig-overlay/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{122267BA-4D24-E14E-85DC-FC14259DF490}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3476ED99-8DB6-E048-8F65-0354D0169F62}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000"/>
+    <workbookView xWindow="68940" yWindow="2740" windowWidth="28040" windowHeight="17440"/>
   </bookViews>
   <sheets>
     <sheet name="cms-ars-3.1-moderate-oracle-jav" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="75" uniqueCount="66">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="87" uniqueCount="72">
   <si>
     <t>Vuln ID</t>
   </si>
@@ -338,6 +338,43 @@
   <si>
     <t>Notes</t>
   </si>
+  <si>
+    <t xml:space="preserve">CCI-001695
+The information system prevents the execution of organization-defined unacceptable mobile code.
+NIST SP 800-53 :: SC-18 (3)
+NIST SP 800-53A :: SC-18 (3).1
+NIST SP 800-53 Revision 4 :: SC-18 (3)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCI-000366
+The organization implements the security configuration settings.
+NIST SP 800-53 :: CM-6 b
+NIST SP 800-53A :: CM-6.1 (iv)
+NIST SP 800-53 Revision 4 :: CM-6 b
+</t>
+  </si>
+  <si>
+    <t>CCI-001991
+The information system, for PKI-based authentication, implements a local cache of revocation data to support path discovery and validation in case of inability to access revocation information via the network.
+NIST SP 800-53 Revision 4 :: IA-5 (2) (d)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCI-002605
+The organization installs security-relevant software updates within organization-defined time period of the release of the updates
+NIST SP 800-53 Revision 4 :: SI-2 c
+</t>
+  </si>
+  <si>
+    <t>CCI-000185
+The information system, for PKI-based authentication validates certifications by constructing and verifying a certification path to an accepted trust anchor including checking certificate status information.
+NIST SP 800-53 :: IA-5 (2)
+NIST SP 800-53A :: IA-5 (2).1
+NIST SP 800-53 Revision 4 :: IA-5 (2) (a)</t>
+  </si>
+  <si>
+    <t>Should we changes this to SC-18 since SC-18(3) is not ARS?</t>
+  </si>
 </sst>
 </file>
 
@@ -479,7 +516,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -657,6 +694,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -820,12 +863,21 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1187,7 +1239,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1229,7 +1281,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="238" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1247,9 +1299,15 @@
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="340" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1267,9 +1325,15 @@
       <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="238" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1287,9 +1351,12 @@
       <c r="F4" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="272" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1307,9 +1374,12 @@
       <c r="F5" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="G5" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" ht="255" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:8" ht="272" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1327,9 +1397,12 @@
       <c r="F6" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="G6" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="306" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1347,9 +1420,12 @@
       <c r="F7" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="G7" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="204" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1367,9 +1443,12 @@
       <c r="F8" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="G8" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="170" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1387,9 +1466,12 @@
       <c r="F9" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="G9" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="221" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1407,9 +1489,12 @@
       <c r="F10" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="G10" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="204" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1427,9 +1512,12 @@
       <c r="F11" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="G11" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="12" spans="1:8" ht="255" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:8" ht="187" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B12" s="1" t="s">

--- a/cms-ars-3.1-moderate-oracle-java-runtime-environment-7-stig-overlay.xlsx
+++ b/cms-ars-3.1-moderate-oracle-java-runtime-environment-7-stig-overlay.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dhaynes/Documents/inspec/cms/cms-ars-3.1-moderate-oracle-java-runtime-environment-7-stig-overlay/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\earonne\Desktop\Greg\Overlay_Worksheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3476ED99-8DB6-E048-8F65-0354D0169F62}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{DAF305AE-CC27-4E9C-A47B-DAFA575B8406}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="68940" yWindow="2740" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cms-ars-3.1-moderate-oracle-jav" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="87" uniqueCount="72">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="84" uniqueCount="70">
   <si>
     <t>Vuln ID</t>
   </si>
@@ -336,17 +336,6 @@
 </t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCI-001695
-The information system prevents the execution of organization-defined unacceptable mobile code.
-NIST SP 800-53 :: SC-18 (3)
-NIST SP 800-53A :: SC-18 (3).1
-NIST SP 800-53 Revision 4 :: SC-18 (3)
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">CCI-000366
 The organization implements the security configuration settings.
 NIST SP 800-53 :: CM-6 b
@@ -373,14 +362,40 @@
 NIST SP 800-53 Revision 4 :: IA-5 (2) (a)</t>
   </si>
   <si>
-    <t>Should we changes this to SC-18 since SC-18(3) is not ARS?</t>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CCI-001695
+The information system prevents the execution of organization-defined unacceptable mobile code.
+NIST SP 800-53 :: SC-18 (3)
+NIST SP 800-53A :: SC-18 (3).1
+NIST SP 800-53 Revision 4 :: SC-18 (3)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SC-18
+</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -515,6 +530,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -703,7 +726,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <start/>
       <end/>
@@ -818,6 +841,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <start style="thin">
+        <color indexed="64"/>
+      </start>
+      <end style="thin">
+        <color indexed="64"/>
+      </end>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -863,7 +901,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -871,13 +909,19 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1234,312 +1278,304 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10:A12"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.84765625" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="36.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.84765625" style="1"/>
+    <col min="2" max="2" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="45" style="1" customWidth="1"/>
-    <col min="5" max="5" width="62" style="1" customWidth="1"/>
+    <col min="5" max="5" width="51.59765625" style="1" customWidth="1"/>
     <col min="6" max="6" width="53" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.1640625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="24.1484375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.84765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>65</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" ht="238" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="218.4" x14ac:dyDescent="0.6">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>71</v>
+      <c r="G2" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="340" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="296.39999999999998" x14ac:dyDescent="0.6">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="218.4" x14ac:dyDescent="0.6">
+      <c r="A4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>71</v>
-      </c>
     </row>
-    <row r="4" spans="1:8" ht="238" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="5" spans="1:7" ht="249.6" x14ac:dyDescent="0.6">
+      <c r="A5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="C5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="218.4" x14ac:dyDescent="0.6">
+      <c r="A6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="272" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="7" spans="1:7" ht="265.2" x14ac:dyDescent="0.6">
+      <c r="A7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="C7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="272" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="8" spans="1:7" ht="187.2" x14ac:dyDescent="0.6">
+      <c r="A8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>70</v>
+      <c r="C8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="306" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    <row r="9" spans="1:7" ht="156" x14ac:dyDescent="0.6">
+      <c r="A9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>70</v>
+      <c r="C9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="204" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="10" spans="1:7" ht="202.8" x14ac:dyDescent="0.6">
+      <c r="A10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="C10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="171.6" x14ac:dyDescent="0.6">
+      <c r="A11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="170" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="221" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="204" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="187" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:7" ht="171.6" x14ac:dyDescent="0.6">
+      <c r="A12" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="5" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/cms-ars-3.1-moderate-oracle-java-runtime-environment-7-stig-overlay.xlsx
+++ b/cms-ars-3.1-moderate-oracle-java-runtime-environment-7-stig-overlay.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\earonne\Desktop\Greg\Overlay_Worksheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dhaynes/Documents/inspec/cms/cms-ars-3.1-moderate-oracle-java-runtime-environment-7-unix-stig-overlay/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{DAF305AE-CC27-4E9C-A47B-DAFA575B8406}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4F320476-3C37-6742-9130-720207F5651B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cms-ars-3.1-moderate-oracle-jav" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="84" uniqueCount="70">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="84" uniqueCount="71">
   <si>
     <t>Vuln ID</t>
   </si>
@@ -381,13 +381,66 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>CCI-001162
+The organization establishes implementation guidance for acceptable mobile code and mobile code technologies.</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">SC-18
-</t>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">NIST SP 800-53::SC-18
+NIST SP 800-53A::SC-18
+NIST SP 800-53 Revision 4::SC-18
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CCI-001695
+The information system prevents the execution of organization-defined unacceptable mobile code.
+NIST SP 800-53 :: SC-18 (3)
+NIST SP 800-53A :: SC-18 (3).1
+NIST SP 800-53 Revision 4 :: SC-18 (3)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>CCI-001162
+The organization establishes implementation guidance for acceptable mobile code and mobile code technologies.
+NIST SP 800-53::SC-18
+NIST SP 800-53A::SC-18
+NIST SP 800-53 Revision 4::SC-18</t>
     </r>
   </si>
 </sst>
@@ -395,7 +448,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -537,6 +590,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="34">
@@ -918,10 +976,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1283,22 +1341,22 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.84765625" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.84765625" style="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="45" style="1" customWidth="1"/>
-    <col min="5" max="5" width="51.59765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="51.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="53" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.1484375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.84765625" style="1"/>
+    <col min="7" max="7" width="24.1640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="34">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1321,7 +1379,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="218.4" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:7" ht="388">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1340,11 +1398,11 @@
       <c r="F2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="296.39999999999998" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:7" ht="356">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
@@ -1363,12 +1421,12 @@
       <c r="F3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>69</v>
+      <c r="G3" s="7" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="218.4" x14ac:dyDescent="0.6">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:7" ht="238">
+      <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1390,8 +1448,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="249.6" x14ac:dyDescent="0.6">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:7" ht="272">
+      <c r="A5" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1413,8 +1471,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="218.4" x14ac:dyDescent="0.6">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:7" ht="272">
+      <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1436,8 +1494,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="265.2" x14ac:dyDescent="0.6">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:7" ht="306">
+      <c r="A7" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1459,8 +1517,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="187.2" x14ac:dyDescent="0.6">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:7" ht="204">
+      <c r="A8" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1482,8 +1540,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="156" x14ac:dyDescent="0.6">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:7" ht="170">
+      <c r="A9" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -1505,8 +1563,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="202.8" x14ac:dyDescent="0.6">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:7" ht="221">
+      <c r="A10" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1528,8 +1586,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="171.6" x14ac:dyDescent="0.6">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:7" ht="221">
+      <c r="A11" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1551,8 +1609,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="171.6" x14ac:dyDescent="0.6">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:7" ht="187">
+      <c r="A12" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B12" s="5" t="s">
